--- a/SchedulingData/dynamic11/pso/scheduling1_4.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_4.xlsx
@@ -462,216 +462,216 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>49.12</v>
+        <v>42.7</v>
       </c>
       <c r="E2" t="n">
-        <v>25.788</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49.12</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>130.78</v>
+        <v>41.32</v>
       </c>
       <c r="E3" t="n">
-        <v>21.732</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74.72</v>
+        <v>76.3</v>
       </c>
       <c r="E4" t="n">
-        <v>25.688</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>42.7</v>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>111.92</v>
       </c>
       <c r="E5" t="n">
-        <v>25.2</v>
+        <v>22.608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>111.92</v>
       </c>
       <c r="D6" t="n">
-        <v>31.64</v>
+        <v>170.62</v>
       </c>
       <c r="E6" t="n">
-        <v>27.536</v>
+        <v>17.868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>130.78</v>
+        <v>170.62</v>
       </c>
       <c r="D7" t="n">
-        <v>188.28</v>
+        <v>218.54</v>
       </c>
       <c r="E7" t="n">
-        <v>18.092</v>
+        <v>14.696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>74.72</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>135.76</v>
+        <v>56.7</v>
       </c>
       <c r="E8" t="n">
-        <v>22.204</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>41.32</v>
       </c>
       <c r="D9" t="n">
-        <v>95.72</v>
+        <v>91.62</v>
       </c>
       <c r="E9" t="n">
-        <v>21.768</v>
+        <v>22.668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>91.62</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>164.22</v>
       </c>
       <c r="E10" t="n">
-        <v>26.48</v>
+        <v>18.508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>95.72</v>
+        <v>218.54</v>
       </c>
       <c r="D11" t="n">
-        <v>153.98</v>
+        <v>278.32</v>
       </c>
       <c r="E11" t="n">
-        <v>19.032</v>
+        <v>10.848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>153.98</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>192.98</v>
+        <v>49.12</v>
       </c>
       <c r="E12" t="n">
-        <v>16.272</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -679,184 +679,184 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>192.98</v>
+        <v>56.7</v>
       </c>
       <c r="D13" t="n">
-        <v>273.88</v>
+        <v>112.8</v>
       </c>
       <c r="E13" t="n">
-        <v>11.792</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>273.88</v>
+        <v>49.12</v>
       </c>
       <c r="D14" t="n">
-        <v>336.28</v>
+        <v>130.78</v>
       </c>
       <c r="E14" t="n">
-        <v>9.151999999999999</v>
+        <v>21.732</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>188.28</v>
+        <v>164.22</v>
       </c>
       <c r="D15" t="n">
-        <v>253.56</v>
+        <v>216.18</v>
       </c>
       <c r="E15" t="n">
-        <v>15.144</v>
+        <v>14.452</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1</v>
+        <v>55</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31.64</v>
+        <v>112.8</v>
       </c>
       <c r="D17" t="n">
-        <v>123.1</v>
+        <v>158.66</v>
       </c>
       <c r="E17" t="n">
-        <v>23.48</v>
+        <v>17.584</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>133.1</v>
+        <v>130.78</v>
       </c>
       <c r="D18" t="n">
-        <v>191.02</v>
+        <v>181.36</v>
       </c>
       <c r="E18" t="n">
-        <v>18.808</v>
+        <v>18.784</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D19" t="n">
-        <v>84.78</v>
+        <v>116.4</v>
       </c>
       <c r="E19" t="n">
-        <v>26.152</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>135.76</v>
+        <v>181.36</v>
       </c>
       <c r="D20" t="n">
-        <v>177.86</v>
+        <v>241.14</v>
       </c>
       <c r="E20" t="n">
-        <v>19.124</v>
+        <v>14.936</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>191.02</v>
+        <v>216.18</v>
       </c>
       <c r="D21" t="n">
-        <v>254.82</v>
+        <v>250.18</v>
       </c>
       <c r="E21" t="n">
-        <v>14.068</v>
+        <v>11.692</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>253.56</v>
+        <v>76.3</v>
       </c>
       <c r="D22" t="n">
-        <v>306.46</v>
+        <v>114.62</v>
       </c>
       <c r="E22" t="n">
-        <v>10.984</v>
+        <v>22.328</v>
       </c>
     </row>
     <row r="23">
@@ -865,79 +865,79 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>123.1</v>
+        <v>114.62</v>
       </c>
       <c r="D23" t="n">
-        <v>193.86</v>
+        <v>173.38</v>
       </c>
       <c r="E23" t="n">
-        <v>20.024</v>
+        <v>19.592</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>177.86</v>
+        <v>116.4</v>
       </c>
       <c r="D24" t="n">
-        <v>238.36</v>
+        <v>169</v>
       </c>
       <c r="E24" t="n">
-        <v>15.704</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>193.86</v>
+        <v>250.18</v>
       </c>
       <c r="D25" t="n">
-        <v>236.98</v>
+        <v>320.72</v>
       </c>
       <c r="E25" t="n">
-        <v>16.852</v>
+        <v>9.228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>84.78</v>
+        <v>173.38</v>
       </c>
       <c r="D26" t="n">
-        <v>150.78</v>
+        <v>227.04</v>
       </c>
       <c r="E26" t="n">
-        <v>21.672</v>
+        <v>16.856</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -945,89 +945,89 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>238.36</v>
+        <v>169</v>
       </c>
       <c r="D27" t="n">
-        <v>314.44</v>
+        <v>260.08</v>
       </c>
       <c r="E27" t="n">
-        <v>12.176</v>
+        <v>14.512</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>254.82</v>
+        <v>260.08</v>
       </c>
       <c r="D28" t="n">
-        <v>293.48</v>
+        <v>302.88</v>
       </c>
       <c r="E28" t="n">
-        <v>11.332</v>
+        <v>11.872</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>150.78</v>
+        <v>158.66</v>
       </c>
       <c r="D29" t="n">
-        <v>230.78</v>
+        <v>234.8</v>
       </c>
       <c r="E29" t="n">
-        <v>17.772</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>230.78</v>
+        <v>241.14</v>
       </c>
       <c r="D30" t="n">
-        <v>280.56</v>
+        <v>309.24</v>
       </c>
       <c r="E30" t="n">
-        <v>13.924</v>
+        <v>11.216</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>280.56</v>
+        <v>227.04</v>
       </c>
       <c r="D31" t="n">
-        <v>334.16</v>
+        <v>287.24</v>
       </c>
       <c r="E31" t="n">
-        <v>10.204</v>
+        <v>13.436</v>
       </c>
     </row>
   </sheetData>
